--- a/2nd_year/3_4_5/data.xlsx
+++ b/2nd_year/3_4_5/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t xml:space="preserve">2Y, del</t>
   </si>
@@ -30,7 +30,13 @@
     <t xml:space="preserve">2X,del</t>
   </si>
   <si>
-    <t xml:space="preserve">I_eff,mA</t>
+    <t xml:space="preserve">dY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -108,12 +114,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -134,10 +136,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -155,29 +157,50 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -188,31 +211,52 @@
         <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>311</v>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -231,10 +275,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -242,63 +286,102 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>16.5</v>
+        <v>6.5</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>6.5</v>
+        <v>16.5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -317,10 +400,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,79 +411,138 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>18.5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>6</v>
+        <v>18.5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>3.5</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
